--- a/GameDesign/Doc/TurtleBomb_Adventure_Boss_AI.xlsx
+++ b/GameDesign/Doc/TurtleBomb_Adventure_Boss_AI.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Turtle_Bomb\GameDesign\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송형종\Documents\GitHub\Turtle_Bomb\GameDesign\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="1170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15096" windowHeight="1176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -763,17 +763,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
@@ -790,7 +790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -807,7 +807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -824,7 +824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>37</v>
       </c>
@@ -844,7 +844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="20"/>
       <c r="C6" s="4" t="s">
         <v>11</v>
@@ -862,7 +862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="20"/>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="20"/>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -890,7 +890,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="20"/>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -904,7 +904,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="20"/>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -916,7 +916,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="20"/>
       <c r="C11" s="4" t="s">
         <v>15</v>
@@ -928,7 +928,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="20"/>
       <c r="C12" s="4" t="s">
         <v>17</v>
@@ -940,7 +940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="20"/>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -952,7 +952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="20"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -964,7 +964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="20"/>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -976,7 +976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="20"/>
       <c r="C16" s="4" t="s">
         <v>21</v>
@@ -994,7 +994,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="20"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
@@ -1012,7 +1012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="20"/>
       <c r="C18" s="4" t="s">
         <v>23</v>
@@ -1030,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="20"/>
       <c r="C19" s="4" t="s">
         <v>24</v>
@@ -1048,7 +1048,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="20"/>
       <c r="C20" s="4" t="s">
         <v>25</v>
@@ -1066,7 +1066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="20"/>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="20"/>
       <c r="C22" s="4" t="s">
         <v>28</v>
@@ -1102,7 +1102,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="20"/>
       <c r="C23" s="4" t="s">
         <v>29</v>
@@ -1120,7 +1120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="20"/>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="20"/>
       <c r="C25" s="4" t="s">
         <v>31</v>
@@ -1156,7 +1156,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="20"/>
       <c r="C26" s="4" t="s">
         <v>32</v>
@@ -1174,7 +1174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="20"/>
       <c r="C27" s="4" t="s">
         <v>33</v>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="20"/>
       <c r="C28" s="4" t="s">
         <v>34</v>
@@ -1210,7 +1210,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="20"/>
       <c r="C29" s="4" t="s">
         <v>35</v>
@@ -1228,7 +1228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="21"/>
       <c r="C30" s="8" t="s">
         <v>36</v>
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="19" t="s">
         <v>39</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="20"/>
       <c r="C32" s="4" t="s">
         <v>11</v>
@@ -1284,7 +1284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="20"/>
       <c r="C33" s="4" t="s">
         <v>12</v>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="20"/>
       <c r="C34" s="4" t="s">
         <v>13</v>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="20"/>
       <c r="C35" s="4" t="s">
         <v>14</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="20"/>
       <c r="C36" s="4" t="s">
         <v>16</v>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="20"/>
       <c r="C37" s="4" t="s">
         <v>15</v>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="20"/>
       <c r="C38" s="4" t="s">
         <v>17</v>
@@ -1362,7 +1362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="20"/>
       <c r="C39" s="4" t="s">
         <v>20</v>
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="20"/>
       <c r="C40" s="4" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="20"/>
       <c r="C41" s="4" t="s">
         <v>19</v>
@@ -1398,7 +1398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="20"/>
       <c r="C42" s="4" t="s">
         <v>21</v>
@@ -1416,7 +1416,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="20"/>
       <c r="C43" s="4" t="s">
         <v>22</v>
@@ -1434,7 +1434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="20"/>
       <c r="C44" s="4" t="s">
         <v>23</v>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="20"/>
       <c r="C45" s="4" t="s">
         <v>24</v>
@@ -1470,7 +1470,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="20"/>
       <c r="C46" s="4" t="s">
         <v>25</v>
@@ -1488,7 +1488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="20"/>
       <c r="C47" s="4" t="s">
         <v>26</v>
@@ -1500,13 +1500,13 @@
         <v>1</v>
       </c>
       <c r="F47" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="20"/>
       <c r="C48" s="4" t="s">
         <v>28</v>
@@ -1524,7 +1524,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="20"/>
       <c r="C49" s="4" t="s">
         <v>29</v>
@@ -1542,7 +1542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="21"/>
       <c r="C50" s="8" t="s">
         <v>30</v>
@@ -1554,13 +1554,13 @@
         <v>1</v>
       </c>
       <c r="F50" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" s="16" t="s">
         <v>38</v>
       </c>
